--- a/db/load/cdisc/sdtm_ig/sdtm_ig_3-3.xlsx
+++ b/db/load/cdisc/sdtm_ig/sdtm_ig_3-3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AEFEF3-CD5C-0849-94C8-D3BE1A6E3164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40E8563-76DD-284F-9CD6-A9785CBD3BAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="31560" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2840" yWindow="-18280" windowWidth="28800" windowHeight="14320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDTMIG v3.3 Variables" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18291" uniqueCount="3611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18296" uniqueCount="3612">
   <si>
     <t>The content of this spreadsheet represents the normative metadata found in the applicable SDTM model and/or Implementation Guide.  A brief description of the columns in the spreadsheet is given below; please see the Implementation Guide and the SDTM model for in-depth information.</t>
   </si>
@@ -11019,12 +11019,15 @@
       <t>(Column L)</t>
     </r>
   </si>
+  <si>
+    <t>Supplemental Qualifiers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11088,8 +11091,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11100,6 +11117,11 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -11156,12 +11178,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -11209,8 +11232,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normal 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -11891,7 +11918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1724"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L1048576"/>
     </sheetView>
   </sheetViews>
@@ -74418,10 +74445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -75452,6 +75479,23 @@
       </c>
       <c r="E60" s="7" t="s">
         <v>3598</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>3481</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>3418</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>3611</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>3596</v>
       </c>
     </row>
   </sheetData>
